--- a/natmiOut/OldD0/LR-pairs_lrc2p/Sema6d-Plxna1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Sema6d-Plxna1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.2257989020856</v>
+        <v>30.708183</v>
       </c>
       <c r="H2">
-        <v>10.2257989020856</v>
+        <v>92.124549</v>
       </c>
       <c r="I2">
-        <v>0.1650566176794205</v>
+        <v>0.3702499640981372</v>
       </c>
       <c r="J2">
-        <v>0.1650566176794205</v>
+        <v>0.3702499640981371</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.28737863779283</v>
+        <v>7.499519333333335</v>
       </c>
       <c r="N2">
-        <v>6.28737863779283</v>
+        <v>22.498558</v>
       </c>
       <c r="O2">
-        <v>0.1803063372110278</v>
+        <v>0.2063210495448665</v>
       </c>
       <c r="P2">
-        <v>0.1803063372110278</v>
+        <v>0.2063210495448665</v>
       </c>
       <c r="Q2">
-        <v>64.29346957133838</v>
+        <v>230.2966121000381</v>
       </c>
       <c r="R2">
-        <v>64.29346957133838</v>
+        <v>2072.669508900342</v>
       </c>
       <c r="S2">
-        <v>0.0297607541662173</v>
+        <v>0.0763903611866768</v>
       </c>
       <c r="T2">
-        <v>0.0297607541662173</v>
+        <v>0.07639036118667679</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.2257989020856</v>
+        <v>30.708183</v>
       </c>
       <c r="H3">
-        <v>10.2257989020856</v>
+        <v>92.124549</v>
       </c>
       <c r="I3">
-        <v>0.1650566176794205</v>
+        <v>0.3702499640981372</v>
       </c>
       <c r="J3">
-        <v>0.1650566176794205</v>
+        <v>0.3702499640981371</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.7950058735445</v>
+        <v>14.856814</v>
       </c>
       <c r="N3">
-        <v>14.7950058735445</v>
+        <v>44.570442</v>
       </c>
       <c r="O3">
-        <v>0.4242838664176457</v>
+        <v>0.4087293226578609</v>
       </c>
       <c r="P3">
-        <v>0.4242838664176457</v>
+        <v>0.4087293226578609</v>
       </c>
       <c r="Q3">
-        <v>151.2907548180414</v>
+        <v>456.225763108962</v>
       </c>
       <c r="R3">
-        <v>151.2907548180414</v>
+        <v>4106.031867980658</v>
       </c>
       <c r="S3">
-        <v>0.07003085992684369</v>
+        <v>0.1513320170399289</v>
       </c>
       <c r="T3">
-        <v>0.07003085992684369</v>
+        <v>0.1513320170399289</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.2257989020856</v>
+        <v>30.708183</v>
       </c>
       <c r="H4">
-        <v>10.2257989020856</v>
+        <v>92.124549</v>
       </c>
       <c r="I4">
-        <v>0.1650566176794205</v>
+        <v>0.3702499640981372</v>
       </c>
       <c r="J4">
-        <v>0.1650566176794205</v>
+        <v>0.3702499640981371</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.7881515721181</v>
+        <v>13.992451</v>
       </c>
       <c r="N4">
-        <v>13.7881515721181</v>
+        <v>41.977353</v>
       </c>
       <c r="O4">
-        <v>0.3954097963713263</v>
+        <v>0.3849496277972726</v>
       </c>
       <c r="P4">
-        <v>0.3954097963713263</v>
+        <v>0.3849496277972725</v>
       </c>
       <c r="Q4">
-        <v>140.9948652079551</v>
+        <v>429.6827459265331</v>
       </c>
       <c r="R4">
-        <v>140.9948652079551</v>
+        <v>3867.144713338797</v>
       </c>
       <c r="S4">
-        <v>0.06526500358635953</v>
+        <v>0.1425275858715314</v>
       </c>
       <c r="T4">
-        <v>0.06526500358635953</v>
+        <v>0.1425275858715314</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.4447307751751</v>
+        <v>12.69729066666667</v>
       </c>
       <c r="H5">
-        <v>12.4447307751751</v>
+        <v>38.091872</v>
       </c>
       <c r="I5">
-        <v>0.2008728305093556</v>
+        <v>0.1530918131325759</v>
       </c>
       <c r="J5">
-        <v>0.2008728305093556</v>
+        <v>0.1530918131325759</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.28737863779283</v>
+        <v>7.499519333333335</v>
       </c>
       <c r="N5">
-        <v>6.28737863779283</v>
+        <v>22.498558</v>
       </c>
       <c r="O5">
-        <v>0.1803063372110278</v>
+        <v>0.2063210495448665</v>
       </c>
       <c r="P5">
-        <v>0.1803063372110278</v>
+        <v>0.2063210495448665</v>
       </c>
       <c r="Q5">
-        <v>78.24473442891893</v>
+        <v>95.22357683561958</v>
       </c>
       <c r="R5">
-        <v>78.24473442891893</v>
+        <v>857.0121915205762</v>
       </c>
       <c r="S5">
-        <v>0.03621864431435352</v>
+        <v>0.03158606356223965</v>
       </c>
       <c r="T5">
-        <v>0.03621864431435352</v>
+        <v>0.03158606356223964</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.4447307751751</v>
+        <v>12.69729066666667</v>
       </c>
       <c r="H6">
-        <v>12.4447307751751</v>
+        <v>38.091872</v>
       </c>
       <c r="I6">
-        <v>0.2008728305093556</v>
+        <v>0.1530918131325759</v>
       </c>
       <c r="J6">
-        <v>0.2008728305093556</v>
+        <v>0.1530918131325759</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.7950058735445</v>
+        <v>14.856814</v>
       </c>
       <c r="N6">
-        <v>14.7950058735445</v>
+        <v>44.570442</v>
       </c>
       <c r="O6">
-        <v>0.4242838664176457</v>
+        <v>0.4087293226578609</v>
       </c>
       <c r="P6">
-        <v>0.4242838664176457</v>
+        <v>0.4087293226578609</v>
       </c>
       <c r="Q6">
-        <v>184.1198649133956</v>
+        <v>188.6412857386027</v>
       </c>
       <c r="R6">
-        <v>184.1198649133956</v>
+        <v>1697.771571647424</v>
       </c>
       <c r="S6">
-        <v>0.08522710118676582</v>
+        <v>0.06257311308614158</v>
       </c>
       <c r="T6">
-        <v>0.08522710118676582</v>
+        <v>0.06257311308614157</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.4447307751751</v>
+        <v>12.69729066666667</v>
       </c>
       <c r="H7">
-        <v>12.4447307751751</v>
+        <v>38.091872</v>
       </c>
       <c r="I7">
-        <v>0.2008728305093556</v>
+        <v>0.1530918131325759</v>
       </c>
       <c r="J7">
-        <v>0.2008728305093556</v>
+        <v>0.1530918131325759</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.7881515721181</v>
+        <v>13.992451</v>
       </c>
       <c r="N7">
-        <v>13.7881515721181</v>
+        <v>41.977353</v>
       </c>
       <c r="O7">
-        <v>0.3954097963713263</v>
+        <v>0.3849496277972726</v>
       </c>
       <c r="P7">
-        <v>0.3954097963713263</v>
+        <v>0.3849496277972725</v>
       </c>
       <c r="Q7">
-        <v>171.5898342023171</v>
+        <v>177.6662174860907</v>
       </c>
       <c r="R7">
-        <v>171.5898342023171</v>
+        <v>1598.995957374816</v>
       </c>
       <c r="S7">
-        <v>0.07942708500823624</v>
+        <v>0.05893263648419472</v>
       </c>
       <c r="T7">
-        <v>0.07942708500823624</v>
+        <v>0.0589326364841947</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>39.2827506325694</v>
+        <v>39.53358366666667</v>
       </c>
       <c r="H8">
-        <v>39.2827506325694</v>
+        <v>118.600751</v>
       </c>
       <c r="I8">
-        <v>0.6340705518112238</v>
+        <v>0.476658222769287</v>
       </c>
       <c r="J8">
-        <v>0.6340705518112238</v>
+        <v>0.476658222769287</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.28737863779283</v>
+        <v>7.499519333333335</v>
       </c>
       <c r="N8">
-        <v>6.28737863779283</v>
+        <v>22.498558</v>
       </c>
       <c r="O8">
-        <v>0.1803063372110278</v>
+        <v>0.2063210495448665</v>
       </c>
       <c r="P8">
-        <v>0.1803063372110278</v>
+        <v>0.2063210495448665</v>
       </c>
       <c r="Q8">
-        <v>246.9855271609596</v>
+        <v>296.4828750241176</v>
       </c>
       <c r="R8">
-        <v>246.9855271609596</v>
+        <v>2668.345875217058</v>
       </c>
       <c r="S8">
-        <v>0.114326938730457</v>
+        <v>0.09834462479595009</v>
       </c>
       <c r="T8">
-        <v>0.114326938730457</v>
+        <v>0.09834462479595008</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>39.2827506325694</v>
+        <v>39.53358366666667</v>
       </c>
       <c r="H9">
-        <v>39.2827506325694</v>
+        <v>118.600751</v>
       </c>
       <c r="I9">
-        <v>0.6340705518112238</v>
+        <v>0.476658222769287</v>
       </c>
       <c r="J9">
-        <v>0.6340705518112238</v>
+        <v>0.476658222769287</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.7950058735445</v>
+        <v>14.856814</v>
       </c>
       <c r="N9">
-        <v>14.7950058735445</v>
+        <v>44.570442</v>
       </c>
       <c r="O9">
-        <v>0.4242838664176457</v>
+        <v>0.4087293226578609</v>
       </c>
       <c r="P9">
-        <v>0.4242838664176457</v>
+        <v>0.4087293226578609</v>
       </c>
       <c r="Q9">
-        <v>581.1885263378483</v>
+        <v>587.3430992891047</v>
       </c>
       <c r="R9">
-        <v>581.1885263378483</v>
+        <v>5286.087893601942</v>
       </c>
       <c r="S9">
-        <v>0.2690259053040362</v>
+        <v>0.1948241925317905</v>
       </c>
       <c r="T9">
-        <v>0.2690259053040362</v>
+        <v>0.1948241925317904</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.2827506325694</v>
+        <v>39.53358366666667</v>
       </c>
       <c r="H10">
-        <v>39.2827506325694</v>
+        <v>118.600751</v>
       </c>
       <c r="I10">
-        <v>0.6340705518112238</v>
+        <v>0.476658222769287</v>
       </c>
       <c r="J10">
-        <v>0.6340705518112238</v>
+        <v>0.476658222769287</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.7881515721181</v>
+        <v>13.992451</v>
       </c>
       <c r="N10">
-        <v>13.7881515721181</v>
+        <v>41.977353</v>
       </c>
       <c r="O10">
-        <v>0.3954097963713263</v>
+        <v>0.3849496277972726</v>
       </c>
       <c r="P10">
-        <v>0.3954097963713263</v>
+        <v>0.3849496277972725</v>
       </c>
       <c r="Q10">
-        <v>541.6365198915851</v>
+        <v>553.1717323102337</v>
       </c>
       <c r="R10">
-        <v>541.6365198915851</v>
+        <v>4978.545590792103</v>
       </c>
       <c r="S10">
-        <v>0.2507177077767305</v>
+        <v>0.1834894054415465</v>
       </c>
       <c r="T10">
-        <v>0.2507177077767305</v>
+        <v>0.1834894054415464</v>
       </c>
     </row>
   </sheetData>
